--- a/biology/Histoire de la zoologie et de la botanique/Julián_Baldomero_Acuña_Galé/Julián_Baldomero_Acuña_Galé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julián_Baldomero_Acuña_Galé/Julián_Baldomero_Acuña_Galé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juli%C3%A1n_Baldomero_Acu%C3%B1a_Gal%C3%A9</t>
+          <t>Julián_Baldomero_Acuña_Galé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julián Baldomero Acuña Galé (prénoms Julián Baldomero) (né à Camagüey, Cuba le 27 février 1900 et mort à Mexico le 24 juillet 1973)[1] est un agronome et botaniste cubain, directeur de la station expérimentale agricole de Santiago de Las Vegas.
-Après des études de biologie, les travaux de recherche qu'il mène à Cuba sont centrés sur la phytopathologie et sur l'introduction de nouvelles variétés améliorées de plantes alimentaires et fourragères. Son travail de terrain a duré de 1935 à 1956[2].
-Il a notamment introduit le Kenaf (une espèce productrice de fibres) dans la culture à Cuba, ainsi que plusieurs autres variétés de cultures utiles. Il a également contribué à l’agronomie cubaine en gérant un programme de recherche et de lutte contre le virus « Raya Blanca », menace pour les cultures de riz[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julián Baldomero Acuña Galé (prénoms Julián Baldomero) (né à Camagüey, Cuba le 27 février 1900 et mort à Mexico le 24 juillet 1973) est un agronome et botaniste cubain, directeur de la station expérimentale agricole de Santiago de Las Vegas.
+Après des études de biologie, les travaux de recherche qu'il mène à Cuba sont centrés sur la phytopathologie et sur l'introduction de nouvelles variétés améliorées de plantes alimentaires et fourragères. Son travail de terrain a duré de 1935 à 1956.
+Il a notamment introduit le Kenaf (une espèce productrice de fibres) dans la culture à Cuba, ainsi que plusieurs autres variétés de cultures utiles. Il a également contribué à l’agronomie cubaine en gérant un programme de recherche et de lutte contre le virus « Raya Blanca », menace pour les cultures de riz.
 Acuña, Juan T. Roig (qui a donné son nom au Conservatoire Botanique International (es) de Cuba) et  Hermano León ont été à l’avant-garde de la recherche botanique au Mexique de leur vivant et ont herborisé ensemble, Acuña amassant un herbier considérable. Particulièrement intéressé par les Orchidaceae, il a créé un catalogue descriptif de cette famille en 1983 et a également publié un ouvrage sur les plantes melliphères de Cuba (1970) et  un autre sur les plantes indésirables dans les cultures cubaines (1974).
 L’espèce d’orchidée Lepanthes acunae Hespenheide a été nommée d’après lui en tant que collectionneur du matériel type.
 </t>
